--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/68.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/68.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1452309978974042</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.933789669005784</v>
+        <v>-1.936609751893374</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3936912433129092</v>
+        <v>0.3899783410177283</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2311845187784685</v>
+        <v>-0.2285301513491965</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1402565682707811</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.947200940744826</v>
+        <v>-1.950130527239234</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3122453806577492</v>
+        <v>0.3087003838930229</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.210994973777383</v>
+        <v>-0.2088195021219291</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1446946964768626</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.017137244299353</v>
+        <v>-2.025306213367987</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2852140503026656</v>
+        <v>0.2770596817149405</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2284045872133783</v>
+        <v>-0.2252406630003792</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1590404962719018</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.080820891904563</v>
+        <v>-2.084612636796653</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2609422108393993</v>
+        <v>0.2534258832674013</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2349675033820129</v>
+        <v>-0.2288630423139237</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1767040902910139</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.047582167090981</v>
+        <v>-2.047954479354162</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2471053350818576</v>
+        <v>0.2364411438258605</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2227585812458344</v>
+        <v>-0.2166263792640179</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1867754154454767</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.913287673713244</v>
+        <v>-1.907579615701837</v>
       </c>
       <c r="F7" t="n">
-        <v>0.264018532166944</v>
+        <v>0.2571548460915822</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2098459159298379</v>
+        <v>-0.2043970164545666</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1774253320327699</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.641615795413817</v>
+        <v>-1.635242685497001</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2624621209020353</v>
+        <v>0.2597902328956724</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1852630862232081</v>
+        <v>-0.1852178247323899</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1388746015219315</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.264923387959373</v>
+        <v>-1.262004751825646</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2465578170477669</v>
+        <v>0.2408723897817684</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1278627555772235</v>
+        <v>-0.1303535976203138</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.06698620910839155</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7781010130557762</v>
+        <v>-0.7802064024028665</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2715275594984874</v>
+        <v>0.2686600250479427</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02766841538670498</v>
+        <v>-0.03092578267752228</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.04028597166111787</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2436095280321015</v>
+        <v>-0.251917201669372</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1645469157814252</v>
+        <v>0.1532680442791555</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06065427377663495</v>
+        <v>0.05600694070327256</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1843172067333133</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4246880642829008</v>
+        <v>0.4212803120387199</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04237301163036713</v>
+        <v>0.02978593703864323</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1598236602073356</v>
+        <v>0.1531935818265192</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3646634981879957</v>
       </c>
       <c r="E13" t="n">
-        <v>1.109765989306717</v>
+        <v>1.097419822649993</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1224707979774977</v>
+        <v>-0.134012478136131</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2919244313284819</v>
+        <v>0.2886714441819374</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.5782962778073412</v>
       </c>
       <c r="E14" t="n">
-        <v>1.826614560788706</v>
+        <v>1.817373916421345</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3459618193009831</v>
+        <v>-0.3674829281609774</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4387819085044425</v>
+        <v>0.4329417161408077</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.8182119999191847</v>
       </c>
       <c r="E15" t="n">
-        <v>2.531506798454244</v>
+        <v>2.524043032613519</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6173555584390921</v>
+        <v>-0.6399819237039042</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6271777538667556</v>
+        <v>0.6234998927257566</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.077563453386645</v>
       </c>
       <c r="E16" t="n">
-        <v>3.203276385129427</v>
+        <v>3.199417478025156</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9361205578867338</v>
+        <v>-0.9534732294471836</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7831284105528955</v>
+        <v>0.7805879268747143</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.346068693650319</v>
       </c>
       <c r="E17" t="n">
-        <v>3.860661578012978</v>
+        <v>3.857646578705252</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.195673307007573</v>
+        <v>-1.220559826717112</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9818394956774785</v>
+        <v>0.9799458133035699</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.610716708233316</v>
       </c>
       <c r="E18" t="n">
-        <v>4.400549400780651</v>
+        <v>4.395366230057926</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.555586841801295</v>
+        <v>-1.574706171551744</v>
       </c>
       <c r="G18" t="n">
-        <v>1.181379888117698</v>
+        <v>1.179208796606516</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.857567743910566</v>
       </c>
       <c r="E19" t="n">
-        <v>4.928993366611782</v>
+        <v>4.921047784901057</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.838940564876082</v>
+        <v>-1.863767222613894</v>
       </c>
       <c r="G19" t="n">
-        <v>1.378609024430008</v>
+        <v>1.382059118068826</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.075027798751794</v>
       </c>
       <c r="E20" t="n">
-        <v>5.290971409406048</v>
+        <v>5.283938357752142</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.159616037250678</v>
+        <v>-2.184051402100126</v>
       </c>
       <c r="G20" t="n">
-        <v>1.588112785042588</v>
+        <v>1.591046021657224</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.254131892337094</v>
       </c>
       <c r="E21" t="n">
-        <v>5.60181418791242</v>
+        <v>5.591312061994514</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.475812082082366</v>
+        <v>-2.502046956203859</v>
       </c>
       <c r="G21" t="n">
-        <v>1.768764535330722</v>
+        <v>1.773563713405539</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.388752612150362</v>
       </c>
       <c r="E22" t="n">
-        <v>5.839133324704902</v>
+        <v>5.836163586887993</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.785665678007146</v>
+        <v>-2.813334319353912</v>
       </c>
       <c r="G22" t="n">
-        <v>1.896206292993778</v>
+        <v>1.899393577976232</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.476306989624673</v>
       </c>
       <c r="E23" t="n">
-        <v>5.990346125336043</v>
+        <v>5.991366698951587</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.036448648269943</v>
+        <v>-3.060748958670982</v>
       </c>
       <c r="G23" t="n">
-        <v>2.014712556340474</v>
+        <v>2.018863473062927</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.517349891161636</v>
       </c>
       <c r="E24" t="n">
-        <v>6.080429632497019</v>
+        <v>6.079644126624109</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.270693653807016</v>
+        <v>-3.293094441641783</v>
       </c>
       <c r="G24" t="n">
-        <v>2.117353937131355</v>
+        <v>2.123315313486536</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.516047983886656</v>
       </c>
       <c r="E25" t="n">
-        <v>6.094745404028378</v>
+        <v>6.097450873140832</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.44581912207106</v>
+        <v>-3.469638346626144</v>
       </c>
       <c r="G25" t="n">
-        <v>2.173768735315976</v>
+        <v>2.172748161700432</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.477825203267221</v>
       </c>
       <c r="E26" t="n">
-        <v>6.042100450014483</v>
+        <v>6.043215926755938</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.611514139715924</v>
+        <v>-3.6360816389176</v>
       </c>
       <c r="G26" t="n">
-        <v>2.20046133451397</v>
+        <v>2.19519202095388</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.409677211728749</v>
       </c>
       <c r="E27" t="n">
-        <v>5.940793553178692</v>
+        <v>5.93571258582233</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.700332515206128</v>
+        <v>-3.729027570360802</v>
       </c>
       <c r="G27" t="n">
-        <v>2.202736089439605</v>
+        <v>2.203495314446878</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.317750692169557</v>
       </c>
       <c r="E28" t="n">
-        <v>5.868559133929075</v>
+        <v>5.860921622365532</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.767310761328473</v>
+        <v>-3.794472765987694</v>
       </c>
       <c r="G28" t="n">
-        <v>2.210512305571785</v>
+        <v>2.208710606227604</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.20833708017217</v>
       </c>
       <c r="E29" t="n">
-        <v>5.672458614791037</v>
+        <v>5.662486486330131</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.806247323816827</v>
+        <v>-3.834661319714001</v>
       </c>
       <c r="G29" t="n">
-        <v>2.208393775791877</v>
+        <v>2.208658044496331</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.085612292718696</v>
       </c>
       <c r="E30" t="n">
-        <v>5.461518166857003</v>
+        <v>5.449818801504551</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.833356766744774</v>
+        <v>-3.867794191040992</v>
       </c>
       <c r="G30" t="n">
-        <v>2.162549725785434</v>
+        <v>2.16447114907307</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.95410726772931</v>
       </c>
       <c r="E31" t="n">
-        <v>5.183078235632169</v>
+        <v>5.165248128345992</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.729639330510893</v>
+        <v>-3.759919267868248</v>
       </c>
       <c r="G31" t="n">
-        <v>2.080265795526093</v>
+        <v>2.082911402666819</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.817677667704525</v>
       </c>
       <c r="E32" t="n">
-        <v>4.876403894425342</v>
+        <v>4.860103917538437</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.648137256004233</v>
+        <v>-3.682208938253678</v>
       </c>
       <c r="G32" t="n">
-        <v>1.934122281866586</v>
+        <v>1.936960615355313</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.679442099595176</v>
       </c>
       <c r="E33" t="n">
-        <v>4.595290615146054</v>
+        <v>4.577022493432604</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.51158406822986</v>
+        <v>-3.540574053098898</v>
       </c>
       <c r="G33" t="n">
-        <v>1.841911484637157</v>
+        <v>1.844770258799156</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.542712470365955</v>
       </c>
       <c r="E34" t="n">
-        <v>4.263344301533688</v>
+        <v>4.244979816646238</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.398699720057209</v>
+        <v>-3.419677691027385</v>
       </c>
       <c r="G34" t="n">
-        <v>1.716940128343917</v>
+        <v>1.713304608597555</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.408992741986069</v>
       </c>
       <c r="E35" t="n">
-        <v>3.919431433768235</v>
+        <v>3.905452933345875</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.280522697555013</v>
+        <v>-3.303696580853916</v>
       </c>
       <c r="G35" t="n">
-        <v>1.603532352930675</v>
+        <v>1.603995188175493</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.282359241852274</v>
       </c>
       <c r="E36" t="n">
-        <v>3.584013125795689</v>
+        <v>3.57427752512551</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.155774728619683</v>
+        <v>-3.180394059528586</v>
       </c>
       <c r="G36" t="n">
-        <v>1.457543604368805</v>
+        <v>1.452610101869625</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.163175328117055</v>
       </c>
       <c r="E37" t="n">
-        <v>3.234188523310146</v>
+        <v>3.216767229489424</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.016071487089175</v>
+        <v>-3.035116354386988</v>
       </c>
       <c r="G37" t="n">
-        <v>1.326828418885931</v>
+        <v>1.321760591962387</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.051450188076286</v>
       </c>
       <c r="E38" t="n">
-        <v>2.875473687999061</v>
+        <v>2.860143183044519</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.960878749156645</v>
+        <v>-2.973176004202323</v>
       </c>
       <c r="G38" t="n">
-        <v>1.180832370083607</v>
+        <v>1.17722167115479</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.9457081082163693</v>
       </c>
       <c r="E39" t="n">
-        <v>2.531937512641062</v>
+        <v>2.513539446647522</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.821423715801591</v>
+        <v>-2.833654538659133</v>
       </c>
       <c r="G39" t="n">
-        <v>1.080109492484179</v>
+        <v>1.077244878129817</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8458053165142813</v>
       </c>
       <c r="E40" t="n">
-        <v>2.214953771864329</v>
+        <v>2.197228788040698</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.70446656347935</v>
+        <v>-2.712374183939712</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9599139534963026</v>
+        <v>0.9558009980242128</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7507168643951541</v>
       </c>
       <c r="E41" t="n">
-        <v>1.881903661895237</v>
+        <v>1.864469227641696</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.575396122170885</v>
+        <v>-2.583016113157337</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8378188919421535</v>
+        <v>0.8345162631605181</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6592016724221191</v>
       </c>
       <c r="E42" t="n">
-        <v>1.550085832514871</v>
+        <v>1.532079059409694</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.510848126095856</v>
+        <v>-2.520603437415263</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7213391753456394</v>
+        <v>0.7185110621935492</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5695534004030366</v>
       </c>
       <c r="E43" t="n">
-        <v>1.285262309785852</v>
+        <v>1.269464589442219</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.430553511360378</v>
+        <v>-2.440123396572239</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6576212166102928</v>
+        <v>0.6527504961790214</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4810516122881968</v>
       </c>
       <c r="E44" t="n">
-        <v>1.01686896947456</v>
+        <v>1.0052192457572</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.316323728871954</v>
+        <v>-2.321380605434817</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5498390064913218</v>
+        <v>0.5457975933756865</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.395448798878173</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7966557561151646</v>
+        <v>0.7916565514518932</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.271847743926693</v>
+        <v>-2.277426587682056</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4431197113825323</v>
+        <v>0.4377642549850791</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.314052468116755</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5622391949274094</v>
+        <v>0.5589540867228647</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.180940039618399</v>
+        <v>-2.183862325872353</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3761925669433684</v>
+        <v>0.37711093719255</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2385198634313606</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3634945286967354</v>
+        <v>0.3611058900200088</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.091601156983787</v>
+        <v>-2.100390646491058</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2951890988597538</v>
+        <v>0.2944707551990267</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.169993689829871</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2440421541871312</v>
+        <v>0.246443933296676</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.987042003025497</v>
+        <v>-1.994207919055677</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2059640999762323</v>
+        <v>0.2089820193801406</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1106389396968706</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1157740093046201</v>
+        <v>0.1159900964220746</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.888460285951387</v>
+        <v>-1.897669539284794</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1535921749553373</v>
+        <v>0.153916305631519</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.06080061839008433</v>
       </c>
       <c r="E50" t="n">
-        <v>0.01065200680728474</v>
+        <v>0.009824159539739504</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.804137398533092</v>
+        <v>-1.816063801363679</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08723152917544599</v>
+        <v>0.08982749468108166</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.01983523486644279</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.07979359228023643</v>
+        <v>-0.08162449258623594</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.674369054237172</v>
+        <v>-1.68599833728126</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02934792261137063</v>
+        <v>0.03437194809218746</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.01406284022270375</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.1849024543447537</v>
+        <v>-0.1919369660467518</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.554151614527931</v>
+        <v>-1.568416284376109</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.008246855681437463</v>
+        <v>-0.007579613703892187</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.04269013589635051</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.3055579084812667</v>
+        <v>-0.3179332760998089</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.441103010945053</v>
+        <v>-1.452307419994686</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.07587190310805567</v>
+        <v>-0.07685451547323723</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.06780095345616047</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.3395799490956212</v>
+        <v>-0.344573313566529</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.369484731989799</v>
+        <v>-1.379616005692615</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1400614573767657</v>
+        <v>-0.1411637936854018</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.09086702561004985</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.4683299098481321</v>
+        <v>-0.4779589270076749</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.325200013344447</v>
+        <v>-1.336284698450626</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1504438593512175</v>
+        <v>-0.1571294195594884</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1131872742719082</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.5486471553290196</v>
+        <v>-0.563465183403652</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.238257069627016</v>
+        <v>-1.24191010995047</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2000475331917496</v>
+        <v>-0.2031968569238397</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.135569273052958</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.6493627326879926</v>
+        <v>-0.6692150065800782</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.197231178320573</v>
+        <v>-1.20159672211239</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2303639717513778</v>
+        <v>-0.236980909699376</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1579707055798482</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.6720840010787138</v>
+        <v>-0.6932853594067989</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.156465175574311</v>
+        <v>-1.156948451492402</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2649291502555504</v>
+        <v>-0.2725053397992756</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1801318865508951</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.7668265216977792</v>
+        <v>-0.7825760604544113</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.143034193186042</v>
+        <v>-1.146314921246314</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3175113222015362</v>
+        <v>-0.3239136330801709</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2019309162115883</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.8330572231975796</v>
+        <v>-0.844885072782031</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.102320752171053</v>
+        <v>-1.099968614696599</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3513961182953453</v>
+        <v>-0.3581838818699798</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2233446374444581</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.9646980791700898</v>
+        <v>-0.9815616346200852</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.093834952666692</v>
+        <v>-1.097210583852872</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3947245054411518</v>
+        <v>-0.4007326033352412</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2442025785127111</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.086455869615239</v>
+        <v>-1.106227840862325</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.093643686366782</v>
+        <v>-1.096714167501963</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4366935878143224</v>
+        <v>-0.4451647868377747</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2638915478819991</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.14603605206095</v>
+        <v>-1.165067778925945</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.132897079290863</v>
+        <v>-1.135087151427226</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4964577363194882</v>
+        <v>-0.5062838599713038</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2822534819673024</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.241723223794833</v>
+        <v>-1.258808706554647</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.161711128364946</v>
+        <v>-1.167390715438581</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5246366644740261</v>
+        <v>-0.5321500719498422</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2994553257764405</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.373688210443525</v>
+        <v>-1.397342449564337</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.122697183327775</v>
+        <v>-1.128789964011137</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5495932664919284</v>
+        <v>-0.5579228408505625</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3157888842738232</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.432877100000873</v>
+        <v>-1.456874450423048</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.201701845574935</v>
+        <v>-1.213469833187659</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6044151522093683</v>
+        <v>-0.6121884482453662</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3311909015502827</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.532109268499483</v>
+        <v>-1.554950260833659</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.293029313709365</v>
+        <v>-1.305584267243089</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6492415486964471</v>
+        <v>-0.655113862118082</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3454227143041097</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.556341686664295</v>
+        <v>-1.57378342115829</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.363313108709528</v>
+        <v>-1.377874168320161</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6728592866149863</v>
+        <v>-0.6797142124018026</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3584695927090259</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.622125613448277</v>
+        <v>-1.634226492025728</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.445643760507779</v>
+        <v>-1.460375645745048</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6673125639176242</v>
+        <v>-0.6712853547729867</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.370017432098857</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.677128545128989</v>
+        <v>-1.688908213126441</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.520361721560031</v>
+        <v>-1.533305047885937</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6926064370445264</v>
+        <v>-0.6975618402650705</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3801001045403718</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.711044002232708</v>
+        <v>-1.72700232786634</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.63188457488791</v>
+        <v>-1.647974304849724</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.734461635666606</v>
+        <v>-0.744458584945058</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3885333599348324</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.690831096462168</v>
+        <v>-1.705742567614618</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.72672929887334</v>
+        <v>-1.740792482084972</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7564572601561457</v>
+        <v>-0.7649868611032342</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3952615947180676</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.680499796170898</v>
+        <v>-1.696782252480711</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.778561006100599</v>
+        <v>-1.794772650078003</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7773826693950491</v>
+        <v>-0.7821161453057751</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4000042626684717</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.63122463315082</v>
+        <v>-1.646880728829634</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.850177825007761</v>
+        <v>-1.862899954047894</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.775513807838686</v>
+        <v>-0.7823570532407751</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4024613013137485</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.543015827738571</v>
+        <v>-1.554526846887295</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.952360750698097</v>
+        <v>-1.961075047728686</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7782265771915944</v>
+        <v>-0.7837762199851384</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4021924716549494</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.425427934641057</v>
+        <v>-1.436591462344145</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.004960443221174</v>
+        <v>-2.013222855367626</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7649503599009615</v>
+        <v>-0.7666308752535974</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3992179164646078</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.289347072424093</v>
+        <v>-1.294822252765001</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.056578253403115</v>
+        <v>-2.06649270996443</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7518201474194196</v>
+        <v>-0.7533911591652374</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3931200795124067</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.105614620664143</v>
+        <v>-1.103979366802325</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.082379493241608</v>
+        <v>-2.087772910889425</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7252954537518813</v>
+        <v>-0.7263189474636083</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3834025765830256</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.9435551227656409</v>
+        <v>-0.9343159384463706</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.079429466073927</v>
+        <v>-2.088807354961833</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6701231564926233</v>
+        <v>-0.6711641707814413</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3695623950817387</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.701584272755524</v>
+        <v>-0.6963821214076164</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.113691684599236</v>
+        <v>-2.119834106917688</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.612064344157639</v>
+        <v>-0.6178315341167283</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3509553501481526</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4441237725489568</v>
+        <v>-0.4367432294494133</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.115637198680372</v>
+        <v>-2.119646490738007</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.517809479600937</v>
+        <v>-0.5206886944362089</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3269183504351116</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1554810252648525</v>
+        <v>-0.1527288346134896</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.101897416120875</v>
+        <v>-2.106373193543556</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4493084033197736</v>
+        <v>-0.4532417728766816</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.297296937985134</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1443077291452488</v>
+        <v>0.1432710950007037</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.037750203246802</v>
+        <v>-2.051308939843025</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3351633036206224</v>
+        <v>-0.3389579686088941</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2625218621288826</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4880541514283384</v>
+        <v>0.4830359661398851</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.98015349613259</v>
+        <v>-1.995143079857904</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2543292011155532</v>
+        <v>-0.2579282196596431</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2235051431809624</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7923778152088021</v>
+        <v>0.7863361362086219</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.908311829819427</v>
+        <v>-1.921087250614878</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1804580679560276</v>
+        <v>-0.1855244348314808</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1817496131854401</v>
       </c>
       <c r="E86" t="n">
-        <v>1.108510347948535</v>
+        <v>1.104937610270082</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.859160040863031</v>
+        <v>-1.875273861618345</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1059080124342294</v>
+        <v>-0.1084309755353196</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1391872265746096</v>
       </c>
       <c r="E87" t="n">
-        <v>1.354188260061469</v>
+        <v>1.35709667585856</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.685808531029442</v>
+        <v>-1.709881803952344</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.05926677617015103</v>
+        <v>-0.06106701546624146</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.09805119036291476</v>
       </c>
       <c r="E88" t="n">
-        <v>1.577895368502409</v>
+        <v>1.579025445724773</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.505131959923763</v>
+        <v>-1.532376457300119</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01027531439983029</v>
+        <v>0.008685322028830718</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.06079945355904683</v>
       </c>
       <c r="E89" t="n">
-        <v>1.764426732452632</v>
+        <v>1.760526944001815</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.274161112230552</v>
+        <v>-1.311817212543178</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06577758252763358</v>
+        <v>0.06406056597272494</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.0294906090353571</v>
       </c>
       <c r="E90" t="n">
-        <v>1.946160378376129</v>
+        <v>1.940288064954494</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.045559922588886</v>
+        <v>-1.086212041584057</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09835271548389755</v>
+        <v>0.09633638907035263</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.005677088808268288</v>
       </c>
       <c r="E91" t="n">
-        <v>2.12976580595217</v>
+        <v>2.123337214207899</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8214133396725828</v>
+        <v>-0.8631225334855716</v>
       </c>
       <c r="G91" t="n">
-        <v>0.08141177748508392</v>
+        <v>0.08042770507181145</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.009384803321660468</v>
       </c>
       <c r="E92" t="n">
-        <v>2.247350778953502</v>
+        <v>2.242145707509413</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6213473299196365</v>
+        <v>-0.6632317295035343</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09319728567489893</v>
+        <v>0.09455951054371675</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.01478717981513968</v>
       </c>
       <c r="E93" t="n">
-        <v>2.351269701823929</v>
+        <v>2.346549366346021</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3726617187394305</v>
+        <v>-0.4128042809508743</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04428713467754843</v>
+        <v>0.04777664961482022</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.01072973441626663</v>
       </c>
       <c r="E94" t="n">
-        <v>2.371543929614287</v>
+        <v>2.367299569814016</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2307406641588323</v>
+        <v>-0.2716161705119122</v>
       </c>
       <c r="G94" t="n">
-        <v>0.009037193618739715</v>
+        <v>0.01127544734210275</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.002011100619741977</v>
       </c>
       <c r="E95" t="n">
-        <v>2.327084005198026</v>
+        <v>2.326892738898117</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.06571142844342204</v>
+        <v>-0.1011380353212307</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.02779835966679585</v>
+        <v>-0.02720119999761419</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.02227447771929449</v>
       </c>
       <c r="E96" t="n">
-        <v>2.228656323197507</v>
+        <v>2.229006734739325</v>
       </c>
       <c r="F96" t="n">
-        <v>0.05404317602100036</v>
+        <v>0.01923854962991879</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.06929146636233016</v>
+        <v>-0.06583407248305836</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.04830987131848825</v>
       </c>
       <c r="E97" t="n">
-        <v>2.080087669659002</v>
+        <v>2.07645360996073</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1266090261872536</v>
+        <v>0.09957185563980632</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1246389693924971</v>
+        <v>-0.1186571523640442</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.078137203505144</v>
       </c>
       <c r="E98" t="n">
-        <v>1.886783142615054</v>
+        <v>1.883316988447236</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1932675217776902</v>
+        <v>0.1699680743429692</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1398088690570385</v>
+        <v>-0.1383429807737662</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1090907851367597</v>
       </c>
       <c r="E99" t="n">
-        <v>1.689479543850107</v>
+        <v>1.682591036957199</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2039798946206874</v>
+        <v>0.1850051096312379</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1342066645322218</v>
+        <v>-0.1359879232031304</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.14021819543285</v>
       </c>
       <c r="E100" t="n">
-        <v>1.530236478718968</v>
+        <v>1.516805496330698</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2281860319198627</v>
+        <v>0.2132789409116849</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1297140965564958</v>
+        <v>-0.1295009295352231</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1683505210213643</v>
       </c>
       <c r="E101" t="n">
-        <v>1.387088983742006</v>
+        <v>1.368165300435738</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2201937286702285</v>
+        <v>0.2105574112702311</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1105217644015009</v>
+        <v>-0.1109656190211371</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1931093349444759</v>
       </c>
       <c r="E102" t="n">
-        <v>1.204385865886146</v>
+        <v>1.176767596198517</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2349869359273154</v>
+        <v>0.2241562991889547</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1423581130237651</v>
+        <v>-0.1429012509135831</v>
       </c>
     </row>
   </sheetData>
